--- a/Icosahedron.xlsx
+++ b/Icosahedron.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -5854,16 +5854,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>416902</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>548786</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>58616</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5895,16 +5895,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5936,16 +5936,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>72902</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>168519</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>212481</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6311,7 +6311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
@@ -11399,7 +11399,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11428,7 +11428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
